--- a/pico2/wlc/logs/reservoirFillingSW1.xlsx
+++ b/pico2/wlc/logs/reservoirFillingSW1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dagak\GitHub\RPi\pico2\wlc\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A5ACD8-D3A0-41B7-84BC-188842BEBAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DDB70E-FE3D-4425-B99F-32E611AF8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26310" yWindow="3255" windowWidth="21600" windowHeight="11175" xr2:uid="{2E9344DF-1460-45F8-B5FA-7EF134B9A1B4}"/>
+    <workbookView xWindow="1970" yWindow="1070" windowWidth="21600" windowHeight="11180" xr2:uid="{2E9344DF-1460-45F8-B5FA-7EF134B9A1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="SouthWest" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>sek</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Now the valve was opened…</t>
+  </si>
+  <si>
+    <t>Now the valve was colsed …</t>
+  </si>
+  <si>
+    <t>Last opened:</t>
+  </si>
+  <si>
+    <t>Last closed</t>
+  </si>
+  <si>
+    <t>SouthWest</t>
   </si>
 </sst>
 </file>
@@ -551,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE306F9-7482-42D6-8928-A15B7245DEDF}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,6 +740,169 @@
       <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>45884.677314814813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1755535862</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G17" si="3">((B9+$L$1)/86400)+25569</f>
+        <v>45887.785439814819</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H10" si="4">((B9+$L$1)/86400)+25569</f>
+        <v>45887.785439814819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1755535932</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>45887.786250000005</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>45887.786250000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1755536280</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>45887.790277777778</v>
+      </c>
+      <c r="H11" s="5">
+        <f>((B11+$L$1)/86400)+25569</f>
+        <v>45887.790277777778</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1755537951</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>45887.809618055559</v>
+      </c>
+      <c r="H12" s="5">
+        <f>((B12+$L$1)/86400)+25569</f>
+        <v>45887.809618055559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1755538717</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4">
+        <f t="shared" si="3"/>
+        <v>45887.818483796298</v>
+      </c>
+      <c r="H13" s="5">
+        <f>((B13+$L$1)/86400)+25569</f>
+        <v>45887.818483796298</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1755538786</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4">
+        <f t="shared" si="3"/>
+        <v>45887.819282407407</v>
+      </c>
+      <c r="H14" s="5">
+        <f>((B14+$L$1)/86400)+25569</f>
+        <v>45887.819282407407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1755543415</v>
+      </c>
+      <c r="G17" s="4">
+        <f>((B17+$L$1)/86400)+25569</f>
+        <v>45887.872858796298</v>
+      </c>
+      <c r="H17" s="5">
+        <f>((B17+$L$1)/86400)+25569</f>
+        <v>45887.872858796298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1755545886</v>
+      </c>
+      <c r="G18" s="4">
+        <f>((B18+$L$1)/86400)+25569</f>
+        <v>45887.901458333334</v>
+      </c>
+      <c r="H18" s="5">
+        <f>((B18+$L$1)/86400)+25569</f>
+        <v>45887.901458333334</v>
       </c>
     </row>
   </sheetData>
